--- a/doc/01022023 ka[itlar.xlsx
+++ b/doc/01022023 ka[itlar.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="a4" sheetId="1" r:id="rId1"/>
-    <sheet name="brez'lya a4" sheetId="2" r:id="rId2"/>
-    <sheet name="ince diploma" sheetId="3" r:id="rId3"/>
-    <sheet name="diploma kalin" sheetId="4" r:id="rId4"/>
+    <sheet name="A4-1" sheetId="1" r:id="rId1"/>
+    <sheet name="A4-2" sheetId="2" r:id="rId2"/>
+    <sheet name="Diploma Paper-1" sheetId="3" r:id="rId3"/>
+    <sheet name="Diploma Paper-2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -363,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1045"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17108,7 +17108,7 @@
   <dimension ref="A1:B1045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1045"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25479,8 +25479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1045"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
